--- a/data/pca/factorExposure/factorExposure_2012-06-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-19.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01728843563556588</v>
+        <v>0.02190908521774274</v>
       </c>
       <c r="C2">
-        <v>0.02809164764450477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02297423516585135</v>
+      </c>
+      <c r="D2">
+        <v>0.003087894695495988</v>
+      </c>
+      <c r="E2">
+        <v>-0.01949968048326023</v>
+      </c>
+      <c r="F2">
+        <v>0.005688059800732656</v>
+      </c>
+      <c r="G2">
+        <v>0.00922237479893933</v>
+      </c>
+      <c r="H2">
+        <v>-0.05142283600819348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06734844618705574</v>
+        <v>0.07729181830694935</v>
       </c>
       <c r="C4">
-        <v>0.06470633409950331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04124936708027693</v>
+      </c>
+      <c r="D4">
+        <v>0.06944498850119607</v>
+      </c>
+      <c r="E4">
+        <v>0.001379783004120909</v>
+      </c>
+      <c r="F4">
+        <v>0.02992183367785993</v>
+      </c>
+      <c r="G4">
+        <v>-0.01105636132709809</v>
+      </c>
+      <c r="H4">
+        <v>0.0188280198136722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09576379081558375</v>
+        <v>0.1164629393453277</v>
       </c>
       <c r="C6">
-        <v>0.07353059814183603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04661833763608721</v>
+      </c>
+      <c r="D6">
+        <v>0.01160337958925826</v>
+      </c>
+      <c r="E6">
+        <v>0.002732152695463183</v>
+      </c>
+      <c r="F6">
+        <v>0.05290868657112885</v>
+      </c>
+      <c r="G6">
+        <v>0.00776820928580915</v>
+      </c>
+      <c r="H6">
+        <v>-0.05012667142497695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04469053973927558</v>
+        <v>0.05580419058598604</v>
       </c>
       <c r="C7">
-        <v>0.03578268539703729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02546190376485541</v>
+      </c>
+      <c r="D7">
+        <v>0.03312312077471292</v>
+      </c>
+      <c r="E7">
+        <v>-0.0219945605136206</v>
+      </c>
+      <c r="F7">
+        <v>0.03613558199805073</v>
+      </c>
+      <c r="G7">
+        <v>-0.04335684384438783</v>
+      </c>
+      <c r="H7">
+        <v>0.02368953054826806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03117461496800489</v>
+        <v>0.03468155898854507</v>
       </c>
       <c r="C8">
-        <v>0.03015740621493622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01793636544399301</v>
+      </c>
+      <c r="D8">
+        <v>0.0393394711123986</v>
+      </c>
+      <c r="E8">
+        <v>-0.00224657436504172</v>
+      </c>
+      <c r="F8">
+        <v>0.04847397220602947</v>
+      </c>
+      <c r="G8">
+        <v>0.02428902541001948</v>
+      </c>
+      <c r="H8">
+        <v>-0.03629572721206541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06220736516439326</v>
+        <v>0.07236191242963175</v>
       </c>
       <c r="C9">
-        <v>0.05033480888791001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02982037540091723</v>
+      </c>
+      <c r="D9">
+        <v>0.06889480767406995</v>
+      </c>
+      <c r="E9">
+        <v>-0.0144721406822834</v>
+      </c>
+      <c r="F9">
+        <v>0.03812926726484584</v>
+      </c>
+      <c r="G9">
+        <v>-0.004538077113592109</v>
+      </c>
+      <c r="H9">
+        <v>0.04148387774463706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02627766320644999</v>
+        <v>0.03924061972157213</v>
       </c>
       <c r="C10">
-        <v>0.03661382374004853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03895726781069681</v>
+      </c>
+      <c r="D10">
+        <v>-0.1841089250771819</v>
+      </c>
+      <c r="E10">
+        <v>-0.04866165460509022</v>
+      </c>
+      <c r="F10">
+        <v>0.03886101538848068</v>
+      </c>
+      <c r="G10">
+        <v>-0.03994130624294406</v>
+      </c>
+      <c r="H10">
+        <v>-0.0252415871333898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06621405527693844</v>
+        <v>0.07501239615514296</v>
       </c>
       <c r="C11">
-        <v>0.05585927320185587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03181126035867327</v>
+      </c>
+      <c r="D11">
+        <v>0.0687582910735591</v>
+      </c>
+      <c r="E11">
+        <v>0.0143722393957166</v>
+      </c>
+      <c r="F11">
+        <v>0.03418577318844645</v>
+      </c>
+      <c r="G11">
+        <v>-0.01586999788511756</v>
+      </c>
+      <c r="H11">
+        <v>0.08751776376624636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05090040435177041</v>
+        <v>0.06152540065083665</v>
       </c>
       <c r="C12">
-        <v>0.05415684745995746</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03582424564739737</v>
+      </c>
+      <c r="D12">
+        <v>0.05160560398166617</v>
+      </c>
+      <c r="E12">
+        <v>-0.007489606219349063</v>
+      </c>
+      <c r="F12">
+        <v>0.02884874216804732</v>
+      </c>
+      <c r="G12">
+        <v>-0.0178056063388688</v>
+      </c>
+      <c r="H12">
+        <v>0.04930046222456285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05681583937455933</v>
+        <v>0.06322216424546107</v>
       </c>
       <c r="C13">
-        <v>0.05585009339176739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03269898999047537</v>
+      </c>
+      <c r="D13">
+        <v>0.05013595998034461</v>
+      </c>
+      <c r="E13">
+        <v>-0.002838299341755632</v>
+      </c>
+      <c r="F13">
+        <v>0.0177820214134238</v>
+      </c>
+      <c r="G13">
+        <v>-0.002253727851372996</v>
+      </c>
+      <c r="H13">
+        <v>0.05653276833832611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03106000191524225</v>
+        <v>0.03754662096829499</v>
       </c>
       <c r="C14">
-        <v>0.02901192595268991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01987233492500756</v>
+      </c>
+      <c r="D14">
+        <v>0.01021901131166035</v>
+      </c>
+      <c r="E14">
+        <v>-0.007603698320106911</v>
+      </c>
+      <c r="F14">
+        <v>0.01281780941030731</v>
+      </c>
+      <c r="G14">
+        <v>0.00436413095231147</v>
+      </c>
+      <c r="H14">
+        <v>0.05864510581929485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03868490558089914</v>
+        <v>0.04058334884280372</v>
       </c>
       <c r="C15">
-        <v>0.01553135728162093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.0037877936107002</v>
+      </c>
+      <c r="D15">
+        <v>0.01708407489638524</v>
+      </c>
+      <c r="E15">
+        <v>-0.03662554212807183</v>
+      </c>
+      <c r="F15">
+        <v>0.002825789768103759</v>
+      </c>
+      <c r="G15">
+        <v>0.02223894771656281</v>
+      </c>
+      <c r="H15">
+        <v>0.05588899766155411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05559368609905296</v>
+        <v>0.06260480027225614</v>
       </c>
       <c r="C16">
-        <v>0.04827671311926183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02826573349534613</v>
+      </c>
+      <c r="D16">
+        <v>0.06054846255988375</v>
+      </c>
+      <c r="E16">
+        <v>0.00346070690834773</v>
+      </c>
+      <c r="F16">
+        <v>0.03012885653946661</v>
+      </c>
+      <c r="G16">
+        <v>-0.005810560275701953</v>
+      </c>
+      <c r="H16">
+        <v>0.05306299393087154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0605497736345765</v>
+        <v>0.06212518746113028</v>
       </c>
       <c r="C20">
-        <v>0.04082775581111167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01815610668876176</v>
+      </c>
+      <c r="D20">
+        <v>0.04866628988399205</v>
+      </c>
+      <c r="E20">
+        <v>-0.01485295204692324</v>
+      </c>
+      <c r="F20">
+        <v>0.02792129187243099</v>
+      </c>
+      <c r="G20">
+        <v>-0.01895958532835246</v>
+      </c>
+      <c r="H20">
+        <v>0.04486357649215156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02571973302022347</v>
+        <v>0.02389666559786189</v>
       </c>
       <c r="C21">
-        <v>0.004820284838833331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006301470297211169</v>
+      </c>
+      <c r="D21">
+        <v>0.0295265594537455</v>
+      </c>
+      <c r="E21">
+        <v>-0.09011182835562966</v>
+      </c>
+      <c r="F21">
+        <v>0.003317873345446846</v>
+      </c>
+      <c r="G21">
+        <v>0.01315944718713473</v>
+      </c>
+      <c r="H21">
+        <v>-0.01790507712003276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06613545134818041</v>
+        <v>0.06312526721847959</v>
       </c>
       <c r="C22">
-        <v>0.07564362595386837</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04384188847073964</v>
+      </c>
+      <c r="D22">
+        <v>0.1040225115577811</v>
+      </c>
+      <c r="E22">
+        <v>-0.618869704928476</v>
+      </c>
+      <c r="F22">
+        <v>-0.1051485260981794</v>
+      </c>
+      <c r="G22">
+        <v>-0.02950333000512402</v>
+      </c>
+      <c r="H22">
+        <v>-0.1307913857779137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06677952381145441</v>
+        <v>0.06378233518385965</v>
       </c>
       <c r="C23">
-        <v>0.07528327157661385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04334504673363021</v>
+      </c>
+      <c r="D23">
+        <v>0.1049285693096948</v>
+      </c>
+      <c r="E23">
+        <v>-0.6181113551084901</v>
+      </c>
+      <c r="F23">
+        <v>-0.1047922947315218</v>
+      </c>
+      <c r="G23">
+        <v>-0.02755124580697686</v>
+      </c>
+      <c r="H23">
+        <v>-0.1267778709029303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06315986594745984</v>
+        <v>0.07425759627764246</v>
       </c>
       <c r="C24">
-        <v>0.05645530642708559</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03391268952419745</v>
+      </c>
+      <c r="D24">
+        <v>0.06631790405401919</v>
+      </c>
+      <c r="E24">
+        <v>-0.002827971523398741</v>
+      </c>
+      <c r="F24">
+        <v>0.04176860319977378</v>
+      </c>
+      <c r="G24">
+        <v>-0.006781139604732294</v>
+      </c>
+      <c r="H24">
+        <v>0.05848737594202943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06258268194400407</v>
+        <v>0.07241623586256081</v>
       </c>
       <c r="C25">
-        <v>0.06179773104246594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03889614397099759</v>
+      </c>
+      <c r="D25">
+        <v>0.06573056841032125</v>
+      </c>
+      <c r="E25">
+        <v>-0.004799091162355253</v>
+      </c>
+      <c r="F25">
+        <v>0.03799019716705244</v>
+      </c>
+      <c r="G25">
+        <v>0.003105713322019107</v>
+      </c>
+      <c r="H25">
+        <v>0.06461889096409941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03753962079432404</v>
+        <v>0.04068354582945252</v>
       </c>
       <c r="C26">
-        <v>0.01683700815888306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.006530114254979847</v>
+      </c>
+      <c r="D26">
+        <v>0.02258768921335859</v>
+      </c>
+      <c r="E26">
+        <v>-0.03535618767986678</v>
+      </c>
+      <c r="F26">
+        <v>0.02119601883754252</v>
+      </c>
+      <c r="G26">
+        <v>-0.01602938120517219</v>
+      </c>
+      <c r="H26">
+        <v>0.05714142922894201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04689883812198295</v>
+        <v>0.0728407820449818</v>
       </c>
       <c r="C28">
-        <v>0.07155954454849077</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07450324796644797</v>
+      </c>
+      <c r="D28">
+        <v>-0.323297870226365</v>
+      </c>
+      <c r="E28">
+        <v>-0.03832685757683135</v>
+      </c>
+      <c r="F28">
+        <v>0.05176266365474403</v>
+      </c>
+      <c r="G28">
+        <v>0.02729890449224981</v>
+      </c>
+      <c r="H28">
+        <v>0.0003903515776456645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03450451947504046</v>
+        <v>0.04334706510628909</v>
       </c>
       <c r="C29">
-        <v>0.03219062239604747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02420389873457585</v>
+      </c>
+      <c r="D29">
+        <v>0.01026407283528822</v>
+      </c>
+      <c r="E29">
+        <v>-0.03490717878287898</v>
+      </c>
+      <c r="F29">
+        <v>0.01300536871275446</v>
+      </c>
+      <c r="G29">
+        <v>-0.01434513525108059</v>
+      </c>
+      <c r="H29">
+        <v>0.08249993983331756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1138661658247839</v>
+        <v>0.1313126414461706</v>
       </c>
       <c r="C30">
-        <v>0.1056108834784669</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06572966895484671</v>
+      </c>
+      <c r="D30">
+        <v>0.09762530221157366</v>
+      </c>
+      <c r="E30">
+        <v>-0.03639530775493695</v>
+      </c>
+      <c r="F30">
+        <v>0.02587152914727484</v>
+      </c>
+      <c r="G30">
+        <v>0.01030702029757691</v>
+      </c>
+      <c r="H30">
+        <v>-0.03632631426455318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03702778921036522</v>
+        <v>0.04313867685747314</v>
       </c>
       <c r="C31">
-        <v>0.02574972845427483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01480087481137186</v>
+      </c>
+      <c r="D31">
+        <v>0.02833926432803662</v>
+      </c>
+      <c r="E31">
+        <v>-0.01914398162832046</v>
+      </c>
+      <c r="F31">
+        <v>0.01303430797925236</v>
+      </c>
+      <c r="G31">
+        <v>-0.02192865393055664</v>
+      </c>
+      <c r="H31">
+        <v>0.06865665173803899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03240209239599266</v>
+        <v>0.03267417556050035</v>
       </c>
       <c r="C32">
-        <v>0.02584413374356203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01461074178786122</v>
+      </c>
+      <c r="D32">
+        <v>0.01673885775219872</v>
+      </c>
+      <c r="E32">
+        <v>-0.06467771315104459</v>
+      </c>
+      <c r="F32">
+        <v>-0.002919683133329652</v>
+      </c>
+      <c r="G32">
+        <v>0.02676809868664345</v>
+      </c>
+      <c r="H32">
+        <v>0.02764022305795251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07256782331064043</v>
+        <v>0.08781939676349705</v>
       </c>
       <c r="C33">
-        <v>0.05731903310561239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03496655076557609</v>
+      </c>
+      <c r="D33">
+        <v>0.06424971561670412</v>
+      </c>
+      <c r="E33">
+        <v>-0.01040099835474734</v>
+      </c>
+      <c r="F33">
+        <v>0.005744093669277426</v>
+      </c>
+      <c r="G33">
+        <v>-0.01499614092346015</v>
+      </c>
+      <c r="H33">
+        <v>0.05613776973064884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0497189867291053</v>
+        <v>0.05736005890558717</v>
       </c>
       <c r="C34">
-        <v>0.03633582330760157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01904740962956519</v>
+      </c>
+      <c r="D34">
+        <v>0.06028061148353296</v>
+      </c>
+      <c r="E34">
+        <v>-0.001029118704898982</v>
+      </c>
+      <c r="F34">
+        <v>0.02552455687480407</v>
+      </c>
+      <c r="G34">
+        <v>-0.001177140022558259</v>
+      </c>
+      <c r="H34">
+        <v>0.04030274668201463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03600522416692766</v>
+        <v>0.04046601911900509</v>
       </c>
       <c r="C35">
-        <v>0.0148001101022574</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005924832701765779</v>
+      </c>
+      <c r="D35">
+        <v>0.01204623972440646</v>
+      </c>
+      <c r="E35">
+        <v>-0.02486487275193554</v>
+      </c>
+      <c r="F35">
+        <v>-0.001014295083490102</v>
+      </c>
+      <c r="G35">
+        <v>-0.01345163818683847</v>
+      </c>
+      <c r="H35">
+        <v>0.04200806417846317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01726184333851502</v>
+        <v>0.02336915425741965</v>
       </c>
       <c r="C36">
-        <v>0.01831196787049249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01242147615505707</v>
+      </c>
+      <c r="D36">
+        <v>0.02065143719215185</v>
+      </c>
+      <c r="E36">
+        <v>-0.03188771833830686</v>
+      </c>
+      <c r="F36">
+        <v>0.02063593078039124</v>
+      </c>
+      <c r="G36">
+        <v>-0.01307826915479122</v>
+      </c>
+      <c r="H36">
+        <v>0.05525879016560641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0384878686053118</v>
+        <v>0.04101818551693933</v>
       </c>
       <c r="C38">
-        <v>0.01035143722024309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001423984531429538</v>
+      </c>
+      <c r="D38">
+        <v>0.01095582611452348</v>
+      </c>
+      <c r="E38">
+        <v>-0.06222827532111883</v>
+      </c>
+      <c r="F38">
+        <v>-0.01744325953929534</v>
+      </c>
+      <c r="G38">
+        <v>0.01771609909225718</v>
+      </c>
+      <c r="H38">
+        <v>0.02069587500901419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08532257647596185</v>
+        <v>0.1009302409912041</v>
       </c>
       <c r="C39">
-        <v>0.08891253935390821</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05749593543231037</v>
+      </c>
+      <c r="D39">
+        <v>0.08485068106425078</v>
+      </c>
+      <c r="E39">
+        <v>0.01489820184557759</v>
+      </c>
+      <c r="F39">
+        <v>0.02067617470851034</v>
+      </c>
+      <c r="G39">
+        <v>0.02399877330826188</v>
+      </c>
+      <c r="H39">
+        <v>0.04764777482769131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06414237572539269</v>
+        <v>0.07255707000494094</v>
       </c>
       <c r="C40">
-        <v>0.0577538589405641</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.0353703213836452</v>
+      </c>
+      <c r="D40">
+        <v>0.01198036620031464</v>
+      </c>
+      <c r="E40">
+        <v>-0.02851221359580757</v>
+      </c>
+      <c r="F40">
+        <v>-0.04455211326883345</v>
+      </c>
+      <c r="G40">
+        <v>0.05617367187379228</v>
+      </c>
+      <c r="H40">
+        <v>-0.08664667622952511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03838302700938735</v>
+        <v>0.04313154932966493</v>
       </c>
       <c r="C41">
-        <v>0.01907869814243523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008334586308391241</v>
+      </c>
+      <c r="D41">
+        <v>0.04132220909543989</v>
+      </c>
+      <c r="E41">
+        <v>-0.006324327567206806</v>
+      </c>
+      <c r="F41">
+        <v>-0.007086268412033228</v>
+      </c>
+      <c r="G41">
+        <v>0.009883116612052406</v>
+      </c>
+      <c r="H41">
+        <v>0.03749880274063595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04127877069840714</v>
+        <v>0.05103294155841664</v>
       </c>
       <c r="C43">
-        <v>0.0382041566725298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02328871221560006</v>
+      </c>
+      <c r="D43">
+        <v>0.0296051623783137</v>
+      </c>
+      <c r="E43">
+        <v>-0.01552721114472964</v>
+      </c>
+      <c r="F43">
+        <v>0.01560136267836808</v>
+      </c>
+      <c r="G43">
+        <v>-0.01085239358380145</v>
+      </c>
+      <c r="H43">
+        <v>0.04778566321050727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08761194098783898</v>
+        <v>0.09215842411798124</v>
       </c>
       <c r="C44">
-        <v>0.09859578421746715</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06198054390264584</v>
+      </c>
+      <c r="D44">
+        <v>0.05872774288366323</v>
+      </c>
+      <c r="E44">
+        <v>-0.09812715293913482</v>
+      </c>
+      <c r="F44">
+        <v>0.07505855007608056</v>
+      </c>
+      <c r="G44">
+        <v>0.01792658669348461</v>
+      </c>
+      <c r="H44">
+        <v>-0.02076671372368648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0266754210953822</v>
+        <v>0.02838930721672738</v>
       </c>
       <c r="C46">
-        <v>0.01896008807809674</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009553451899270505</v>
+      </c>
+      <c r="D46">
+        <v>0.03462012289934194</v>
+      </c>
+      <c r="E46">
+        <v>-0.01498138963343898</v>
+      </c>
+      <c r="F46">
+        <v>0.01835115831000853</v>
+      </c>
+      <c r="G46">
+        <v>0.005212019609184464</v>
+      </c>
+      <c r="H46">
+        <v>0.04314760726418752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02720937578681078</v>
+        <v>0.03039038140213932</v>
       </c>
       <c r="C47">
-        <v>0.02219278078702223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01360337505367994</v>
+      </c>
+      <c r="D47">
+        <v>0.01697143903153706</v>
+      </c>
+      <c r="E47">
+        <v>-0.04603139632672355</v>
+      </c>
+      <c r="F47">
+        <v>0.01666998187358517</v>
+      </c>
+      <c r="G47">
+        <v>-0.02520840430698975</v>
+      </c>
+      <c r="H47">
+        <v>0.04737724711636523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02666452120117095</v>
+        <v>0.03126639095269126</v>
       </c>
       <c r="C48">
-        <v>0.02195339546847423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01298136739981742</v>
+      </c>
+      <c r="D48">
+        <v>0.03123212531112374</v>
+      </c>
+      <c r="E48">
+        <v>-0.0418703752285868</v>
+      </c>
+      <c r="F48">
+        <v>0.01874723915149282</v>
+      </c>
+      <c r="G48">
+        <v>-0.001457016777576204</v>
+      </c>
+      <c r="H48">
+        <v>0.04979632734660631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1488278897783006</v>
+        <v>0.1760576916773332</v>
       </c>
       <c r="C49">
-        <v>0.09772427135804829</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05487577700341961</v>
+      </c>
+      <c r="D49">
+        <v>0.01042399975582038</v>
+      </c>
+      <c r="E49">
+        <v>0.133164769883953</v>
+      </c>
+      <c r="F49">
+        <v>0.01523713078121599</v>
+      </c>
+      <c r="G49">
+        <v>-0.06344445515911905</v>
+      </c>
+      <c r="H49">
+        <v>-0.2639684360007416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03214232142078697</v>
+        <v>0.0414099299311893</v>
       </c>
       <c r="C50">
-        <v>0.02974944989302467</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02204970654743068</v>
+      </c>
+      <c r="D50">
+        <v>0.03784866711261956</v>
+      </c>
+      <c r="E50">
+        <v>-0.03944033880847549</v>
+      </c>
+      <c r="F50">
+        <v>0.02801839834454169</v>
+      </c>
+      <c r="G50">
+        <v>-0.02180210208347525</v>
+      </c>
+      <c r="H50">
+        <v>0.07441036788965244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0241816964052237</v>
+        <v>0.02639042202679866</v>
       </c>
       <c r="C51">
-        <v>0.01583609185100455</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.008697720447245264</v>
+      </c>
+      <c r="D51">
+        <v>0.02797853404207952</v>
+      </c>
+      <c r="E51">
+        <v>-0.01261018077265275</v>
+      </c>
+      <c r="F51">
+        <v>0.006419640607673589</v>
+      </c>
+      <c r="G51">
+        <v>0.004260441344506918</v>
+      </c>
+      <c r="H51">
+        <v>-0.001921775633073712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1357797477274971</v>
+        <v>0.1579706932012685</v>
       </c>
       <c r="C53">
-        <v>0.1044920131134612</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06809327626954619</v>
+      </c>
+      <c r="D53">
+        <v>0.02303680282461808</v>
+      </c>
+      <c r="E53">
+        <v>0.04223937682169005</v>
+      </c>
+      <c r="F53">
+        <v>0.01791653764835058</v>
+      </c>
+      <c r="G53">
+        <v>0.005648784669606903</v>
+      </c>
+      <c r="H53">
+        <v>0.1521678547255998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05067201941562741</v>
+        <v>0.05479093840583604</v>
       </c>
       <c r="C54">
-        <v>0.03133849021761633</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01369356695440322</v>
+      </c>
+      <c r="D54">
+        <v>0.03529105464158046</v>
+      </c>
+      <c r="E54">
+        <v>-0.04057871044004682</v>
+      </c>
+      <c r="F54">
+        <v>0.0175385964649123</v>
+      </c>
+      <c r="G54">
+        <v>0.003004109923322404</v>
+      </c>
+      <c r="H54">
+        <v>0.06534658316283366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08960764419551424</v>
+        <v>0.0986813929469037</v>
       </c>
       <c r="C55">
-        <v>0.06801897041538899</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0424356031303743</v>
+      </c>
+      <c r="D55">
+        <v>0.03221847724649452</v>
+      </c>
+      <c r="E55">
+        <v>-0.004439886874680578</v>
+      </c>
+      <c r="F55">
+        <v>0.0207545703976487</v>
+      </c>
+      <c r="G55">
+        <v>0.01121687691225146</v>
+      </c>
+      <c r="H55">
+        <v>0.1414940139216789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1331003812471207</v>
+        <v>0.1572102700378999</v>
       </c>
       <c r="C56">
-        <v>0.1140774185352059</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07673507719066459</v>
+      </c>
+      <c r="D56">
+        <v>0.01976522085700922</v>
+      </c>
+      <c r="E56">
+        <v>0.04250209114515055</v>
+      </c>
+      <c r="F56">
+        <v>0.04760553318876728</v>
+      </c>
+      <c r="G56">
+        <v>-0.01382905427453368</v>
+      </c>
+      <c r="H56">
+        <v>0.1478399454146457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1110865103536307</v>
+        <v>0.1020002011401107</v>
       </c>
       <c r="C58">
-        <v>0.03770332988610613</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.002768642969212909</v>
+      </c>
+      <c r="D58">
+        <v>0.05875965719211046</v>
+      </c>
+      <c r="E58">
+        <v>-0.1841024400080347</v>
+      </c>
+      <c r="F58">
+        <v>0.0444705329549086</v>
+      </c>
+      <c r="G58">
+        <v>-0.05917429804771908</v>
+      </c>
+      <c r="H58">
+        <v>-0.1065762165413068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.09985243489000849</v>
+        <v>0.1446354610135245</v>
       </c>
       <c r="C59">
-        <v>0.08761354840540497</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08672732307500311</v>
+      </c>
+      <c r="D59">
+        <v>-0.3519424347105974</v>
+      </c>
+      <c r="E59">
+        <v>-0.05018215032749786</v>
+      </c>
+      <c r="F59">
+        <v>-0.0197354282829643</v>
+      </c>
+      <c r="G59">
+        <v>-0.02829169547941333</v>
+      </c>
+      <c r="H59">
+        <v>0.01752187234859792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1798329040698274</v>
+        <v>0.2163873573066274</v>
       </c>
       <c r="C60">
-        <v>0.1244848277489722</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08103951398254028</v>
+      </c>
+      <c r="D60">
+        <v>0.01339367858730739</v>
+      </c>
+      <c r="E60">
+        <v>0.07060027780167194</v>
+      </c>
+      <c r="F60">
+        <v>0.03743375910947409</v>
+      </c>
+      <c r="G60">
+        <v>0.02071686854329165</v>
+      </c>
+      <c r="H60">
+        <v>-0.1786163051955305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07338582127884631</v>
+        <v>0.08545867805694422</v>
       </c>
       <c r="C61">
-        <v>0.06479045763476854</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04086666090498892</v>
+      </c>
+      <c r="D61">
+        <v>0.06411157421302699</v>
+      </c>
+      <c r="E61">
+        <v>0.01851043342439023</v>
+      </c>
+      <c r="F61">
+        <v>0.00749336486270516</v>
+      </c>
+      <c r="G61">
+        <v>-0.01760776223273994</v>
+      </c>
+      <c r="H61">
+        <v>0.06587518265020938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1122612226622165</v>
+        <v>0.1375139577841717</v>
       </c>
       <c r="C62">
-        <v>0.08801732885971648</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05912525251014941</v>
+      </c>
+      <c r="D62">
+        <v>0.02463711736366914</v>
+      </c>
+      <c r="E62">
+        <v>0.05637028957603767</v>
+      </c>
+      <c r="F62">
+        <v>0.01955650307620987</v>
+      </c>
+      <c r="G62">
+        <v>0.0310139731601803</v>
+      </c>
+      <c r="H62">
+        <v>0.1452865562854921</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0487730675545869</v>
+        <v>0.05194875280957158</v>
       </c>
       <c r="C63">
-        <v>0.03336090537234533</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01822119172481811</v>
+      </c>
+      <c r="D63">
+        <v>0.0306056367426661</v>
+      </c>
+      <c r="E63">
+        <v>-0.04841204919383583</v>
+      </c>
+      <c r="F63">
+        <v>0.01645260568328763</v>
+      </c>
+      <c r="G63">
+        <v>0.02764829373380565</v>
+      </c>
+      <c r="H63">
+        <v>0.0791853616571519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1050812264932101</v>
+        <v>0.1120722109093317</v>
       </c>
       <c r="C64">
-        <v>0.05131902142243402</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01903046618945434</v>
+      </c>
+      <c r="D64">
+        <v>0.04538616422671202</v>
+      </c>
+      <c r="E64">
+        <v>-0.02848119183831924</v>
+      </c>
+      <c r="F64">
+        <v>0.05841044601746116</v>
+      </c>
+      <c r="G64">
+        <v>0.0181742048626371</v>
+      </c>
+      <c r="H64">
+        <v>0.07557459769172843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1075440247128556</v>
+        <v>0.1242723131718469</v>
       </c>
       <c r="C65">
-        <v>0.07297997960362705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04432183434080601</v>
+      </c>
+      <c r="D65">
+        <v>0.01130727024084673</v>
+      </c>
+      <c r="E65">
+        <v>-0.0009858109054656941</v>
+      </c>
+      <c r="F65">
+        <v>0.06273345756972716</v>
+      </c>
+      <c r="G65">
+        <v>0.02499634449514681</v>
+      </c>
+      <c r="H65">
+        <v>-0.05806825445754418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.131771271459617</v>
+        <v>0.1521037420847956</v>
       </c>
       <c r="C66">
-        <v>0.09991234948151338</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05725408760921388</v>
+      </c>
+      <c r="D66">
+        <v>0.1186009789482179</v>
+      </c>
+      <c r="E66">
+        <v>0.05898948820172435</v>
+      </c>
+      <c r="F66">
+        <v>0.039669142997302</v>
+      </c>
+      <c r="G66">
+        <v>0.02014685725471194</v>
+      </c>
+      <c r="H66">
+        <v>0.1057793370835939</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06927005788502255</v>
+        <v>0.07533780710731686</v>
       </c>
       <c r="C67">
-        <v>0.02468250941259601</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.007807322463012048</v>
+      </c>
+      <c r="D67">
+        <v>0.02406564381524426</v>
+      </c>
+      <c r="E67">
+        <v>-0.02725635736015735</v>
+      </c>
+      <c r="F67">
+        <v>0.0001990175478365846</v>
+      </c>
+      <c r="G67">
+        <v>-0.004310417945067069</v>
+      </c>
+      <c r="H67">
+        <v>0.01338519385751437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0500686637506861</v>
+        <v>0.06661470263393773</v>
       </c>
       <c r="C68">
-        <v>0.0474699778623582</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.0483358638642754</v>
+      </c>
+      <c r="D68">
+        <v>-0.2660529656279908</v>
+      </c>
+      <c r="E68">
+        <v>-0.04849384671660217</v>
+      </c>
+      <c r="F68">
+        <v>0.01234920790005553</v>
+      </c>
+      <c r="G68">
+        <v>-0.006342337080494498</v>
+      </c>
+      <c r="H68">
+        <v>0.0197909201643534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04922854651235902</v>
+        <v>0.0511259151254601</v>
       </c>
       <c r="C69">
-        <v>0.02794298582756374</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01105326894096339</v>
+      </c>
+      <c r="D69">
+        <v>0.03546238039490259</v>
+      </c>
+      <c r="E69">
+        <v>-0.01719495331257478</v>
+      </c>
+      <c r="F69">
+        <v>0.002217924393640341</v>
+      </c>
+      <c r="G69">
+        <v>-0.004033340686843247</v>
+      </c>
+      <c r="H69">
+        <v>0.07398196255774499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004824420750423456</v>
+        <v>0.01548535917553943</v>
       </c>
       <c r="C70">
-        <v>-0.002460799565337264</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0007681996831900645</v>
+      </c>
+      <c r="D70">
+        <v>-0.005463996710157549</v>
+      </c>
+      <c r="E70">
+        <v>0.02436354851842993</v>
+      </c>
+      <c r="F70">
+        <v>0.0109008875876864</v>
+      </c>
+      <c r="G70">
+        <v>-0.0191792236599641</v>
+      </c>
+      <c r="H70">
+        <v>-0.05415628426585549</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05275779543354116</v>
+        <v>0.07009611908068722</v>
       </c>
       <c r="C71">
-        <v>0.04592939302270814</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04689758376395631</v>
+      </c>
+      <c r="D71">
+        <v>-0.2989292699397498</v>
+      </c>
+      <c r="E71">
+        <v>-0.04484186981846162</v>
+      </c>
+      <c r="F71">
+        <v>0.0352200731927985</v>
+      </c>
+      <c r="G71">
+        <v>-0.003990120008182945</v>
+      </c>
+      <c r="H71">
+        <v>0.01537707809432324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1298297757947264</v>
+        <v>0.1549170319204719</v>
       </c>
       <c r="C72">
-        <v>0.08078548636848257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04829765239564716</v>
+      </c>
+      <c r="D72">
+        <v>0.009120235575574027</v>
+      </c>
+      <c r="E72">
+        <v>0.08549154440582149</v>
+      </c>
+      <c r="F72">
+        <v>-0.1610292353272688</v>
+      </c>
+      <c r="G72">
+        <v>0.1240097768081205</v>
+      </c>
+      <c r="H72">
+        <v>0.01165054591028743</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2409265053723738</v>
+        <v>0.2728028803389741</v>
       </c>
       <c r="C73">
-        <v>0.1506668572701186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.0824064604741961</v>
+      </c>
+      <c r="D73">
+        <v>0.06742024908861707</v>
+      </c>
+      <c r="E73">
+        <v>0.1877237356781887</v>
+      </c>
+      <c r="F73">
+        <v>0.05655918649622737</v>
+      </c>
+      <c r="G73">
+        <v>-0.2183974077942363</v>
+      </c>
+      <c r="H73">
+        <v>-0.583894737280318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07125420496541265</v>
+        <v>0.08897113913861288</v>
       </c>
       <c r="C74">
-        <v>0.08527291754542839</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.064005819408888</v>
+      </c>
+      <c r="D74">
+        <v>0.03427966738859917</v>
+      </c>
+      <c r="E74">
+        <v>0.007527313102258864</v>
+      </c>
+      <c r="F74">
+        <v>-0.006312589883761295</v>
+      </c>
+      <c r="G74">
+        <v>-0.01939120030800165</v>
+      </c>
+      <c r="H74">
+        <v>0.1462088824277803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09129931088909235</v>
+        <v>0.10409720452218</v>
       </c>
       <c r="C75">
-        <v>0.07051289663400458</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03931903610647621</v>
+      </c>
+      <c r="D75">
+        <v>0.01661590983540119</v>
+      </c>
+      <c r="E75">
+        <v>0.0008968962376848271</v>
+      </c>
+      <c r="F75">
+        <v>0.06005467712199552</v>
+      </c>
+      <c r="G75">
+        <v>-0.0119892794110131</v>
+      </c>
+      <c r="H75">
+        <v>0.1344972098399835</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1139909158691653</v>
+        <v>0.1320678125898</v>
       </c>
       <c r="C76">
-        <v>0.1040132529830472</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06910687548226187</v>
+      </c>
+      <c r="D76">
+        <v>0.05955752271863653</v>
+      </c>
+      <c r="E76">
+        <v>-0.001437598050143259</v>
+      </c>
+      <c r="F76">
+        <v>0.06495130655848555</v>
+      </c>
+      <c r="G76">
+        <v>0.01196651000834784</v>
+      </c>
+      <c r="H76">
+        <v>0.1579172507873175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.111689918101812</v>
+        <v>0.1160521749693446</v>
       </c>
       <c r="C77">
-        <v>0.05910789259987078</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.02206196451932167</v>
+      </c>
+      <c r="D77">
+        <v>0.019615432596689</v>
+      </c>
+      <c r="E77">
+        <v>0.01231601180595003</v>
+      </c>
+      <c r="F77">
+        <v>0.2633097391974071</v>
+      </c>
+      <c r="G77">
+        <v>0.8657607736520287</v>
+      </c>
+      <c r="H77">
+        <v>-0.2058455805575533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08305621056484043</v>
+        <v>0.1051167217762598</v>
       </c>
       <c r="C78">
-        <v>0.05232265472015279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03147805509490662</v>
+      </c>
+      <c r="D78">
+        <v>0.07048065242730178</v>
+      </c>
+      <c r="E78">
+        <v>-0.0610576288236325</v>
+      </c>
+      <c r="F78">
+        <v>0.005436515521376378</v>
+      </c>
+      <c r="G78">
+        <v>0.02383987257835016</v>
+      </c>
+      <c r="H78">
+        <v>-0.09414349974669138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1313537986196646</v>
+        <v>0.1497294686840279</v>
       </c>
       <c r="C79">
-        <v>0.1060631742874762</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06395511842765489</v>
+      </c>
+      <c r="D79">
+        <v>0.02742000931259835</v>
+      </c>
+      <c r="E79">
+        <v>0.02849783641322094</v>
+      </c>
+      <c r="F79">
+        <v>0.03332236508463166</v>
+      </c>
+      <c r="G79">
+        <v>-0.008435841224068595</v>
+      </c>
+      <c r="H79">
+        <v>0.1372096007908641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03937190636502595</v>
+        <v>0.03884545141530323</v>
       </c>
       <c r="C80">
-        <v>0.02291926860795544</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.009251687226215236</v>
+      </c>
+      <c r="D80">
+        <v>0.02722734256018619</v>
+      </c>
+      <c r="E80">
+        <v>-0.0007280939169956811</v>
+      </c>
+      <c r="F80">
+        <v>-0.02349892011219116</v>
+      </c>
+      <c r="G80">
+        <v>-0.03166344537700395</v>
+      </c>
+      <c r="H80">
+        <v>0.04870832564453145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1059322735055025</v>
+        <v>0.1206313017831325</v>
       </c>
       <c r="C81">
-        <v>0.0840785592579599</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05117108291745665</v>
+      </c>
+      <c r="D81">
+        <v>0.03266457450936111</v>
+      </c>
+      <c r="E81">
+        <v>0.007545251557731076</v>
+      </c>
+      <c r="F81">
+        <v>0.03334928949411081</v>
+      </c>
+      <c r="G81">
+        <v>-0.049326487028662</v>
+      </c>
+      <c r="H81">
+        <v>0.1646451428920066</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1130543156706193</v>
+        <v>0.1255093011869365</v>
       </c>
       <c r="C82">
-        <v>0.0962317880731817</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06002068908287241</v>
+      </c>
+      <c r="D82">
+        <v>0.03713143309810909</v>
+      </c>
+      <c r="E82">
+        <v>0.03130862950775704</v>
+      </c>
+      <c r="F82">
+        <v>0.05269894444187772</v>
+      </c>
+      <c r="G82">
+        <v>-0.03340103501581473</v>
+      </c>
+      <c r="H82">
+        <v>0.1744218293730955</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07302226621745347</v>
+        <v>0.07443945849766397</v>
       </c>
       <c r="C83">
-        <v>0.02568945666359526</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.0005853897523586962</v>
+      </c>
+      <c r="D83">
+        <v>0.04489829125075255</v>
+      </c>
+      <c r="E83">
+        <v>-0.00689494401268011</v>
+      </c>
+      <c r="F83">
+        <v>0.008100629775430614</v>
+      </c>
+      <c r="G83">
+        <v>-0.07308156275949385</v>
+      </c>
+      <c r="H83">
+        <v>0.001537601366283176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02372619638841305</v>
+        <v>0.03248322137607443</v>
       </c>
       <c r="C84">
-        <v>0.02214652037444055</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01828133718503908</v>
+      </c>
+      <c r="D84">
+        <v>0.01977593614913951</v>
+      </c>
+      <c r="E84">
+        <v>-0.01694784704791784</v>
+      </c>
+      <c r="F84">
+        <v>-0.04571704281538708</v>
+      </c>
+      <c r="G84">
+        <v>-0.05440554921048987</v>
+      </c>
+      <c r="H84">
+        <v>0.001067790631070736</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1141429924759953</v>
+        <v>0.1187688248541877</v>
       </c>
       <c r="C85">
-        <v>0.08168719952857868</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04147591632464403</v>
+      </c>
+      <c r="D85">
+        <v>0.03150410220731024</v>
+      </c>
+      <c r="E85">
+        <v>-0.003293154757449263</v>
+      </c>
+      <c r="F85">
+        <v>0.07905184864739165</v>
+      </c>
+      <c r="G85">
+        <v>-0.01001000739159502</v>
+      </c>
+      <c r="H85">
+        <v>0.1323293019068447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04255679865633026</v>
+        <v>0.04500419613880751</v>
       </c>
       <c r="C86">
-        <v>0.02107078456096831</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.007502908493616562</v>
+      </c>
+      <c r="D86">
+        <v>0.01747882477549451</v>
+      </c>
+      <c r="E86">
+        <v>-0.04404431548613568</v>
+      </c>
+      <c r="F86">
+        <v>0.005985456576474747</v>
+      </c>
+      <c r="G86">
+        <v>-0.01650244177872897</v>
+      </c>
+      <c r="H86">
+        <v>-0.003152675833571717</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1143274678088314</v>
+        <v>0.1211989618368896</v>
       </c>
       <c r="C87">
-        <v>0.08851558620692673</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.0451177291959954</v>
+      </c>
+      <c r="D87">
+        <v>0.07031761438638728</v>
+      </c>
+      <c r="E87">
+        <v>-0.02267075673789461</v>
+      </c>
+      <c r="F87">
+        <v>0.03299146469691017</v>
+      </c>
+      <c r="G87">
+        <v>0.1022351644419996</v>
+      </c>
+      <c r="H87">
+        <v>-0.02524061594169658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05199680142362589</v>
+        <v>0.05785077513502357</v>
       </c>
       <c r="C88">
-        <v>0.04274012710828307</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02515226830143226</v>
+      </c>
+      <c r="D88">
+        <v>0.02534151544401293</v>
+      </c>
+      <c r="E88">
+        <v>-0.01915817332001068</v>
+      </c>
+      <c r="F88">
+        <v>0.01227750025090924</v>
+      </c>
+      <c r="G88">
+        <v>0.01786414728758416</v>
+      </c>
+      <c r="H88">
+        <v>0.0657770258657548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.06954587178741775</v>
+        <v>0.1039231453341185</v>
       </c>
       <c r="C89">
-        <v>0.07369558065381086</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.0766358307646316</v>
+      </c>
+      <c r="D89">
+        <v>-0.3305908289060265</v>
+      </c>
+      <c r="E89">
+        <v>-0.0791649112434898</v>
+      </c>
+      <c r="F89">
+        <v>0.06712010625761741</v>
+      </c>
+      <c r="G89">
+        <v>-0.02267196339203146</v>
+      </c>
+      <c r="H89">
+        <v>0.01206718712652582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06275312221495145</v>
+        <v>0.08518398843264983</v>
       </c>
       <c r="C90">
-        <v>0.06607027035962185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06432072636233792</v>
+      </c>
+      <c r="D90">
+        <v>-0.3088830033465025</v>
+      </c>
+      <c r="E90">
+        <v>-0.06919548015090771</v>
+      </c>
+      <c r="F90">
+        <v>-0.01592863723761726</v>
+      </c>
+      <c r="G90">
+        <v>-0.01503795205397414</v>
+      </c>
+      <c r="H90">
+        <v>0.03669281833309393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07424335999286145</v>
+        <v>0.08622552089493714</v>
       </c>
       <c r="C91">
-        <v>0.06691294998302466</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04321136411967361</v>
+      </c>
+      <c r="D91">
+        <v>0.03019606700895439</v>
+      </c>
+      <c r="E91">
+        <v>-0.005714763279307825</v>
+      </c>
+      <c r="F91">
+        <v>0.009188699577568151</v>
+      </c>
+      <c r="G91">
+        <v>-0.02533499029892012</v>
+      </c>
+      <c r="H91">
+        <v>0.08719300459841016</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07731277381512576</v>
+        <v>0.1021305431915118</v>
       </c>
       <c r="C92">
-        <v>0.070032470715887</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.0664094148139449</v>
+      </c>
+      <c r="D92">
+        <v>-0.3323536920269062</v>
+      </c>
+      <c r="E92">
+        <v>-0.04331894272262622</v>
+      </c>
+      <c r="F92">
+        <v>0.02892190404311618</v>
+      </c>
+      <c r="G92">
+        <v>-0.002206574537629472</v>
+      </c>
+      <c r="H92">
+        <v>0.04092294348544622</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05590546123797521</v>
+        <v>0.08310201471364546</v>
       </c>
       <c r="C93">
-        <v>0.06124851890737561</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06537823516445641</v>
+      </c>
+      <c r="D93">
+        <v>-0.3010911960228725</v>
+      </c>
+      <c r="E93">
+        <v>-0.03795016374008019</v>
+      </c>
+      <c r="F93">
+        <v>0.03768895580588506</v>
+      </c>
+      <c r="G93">
+        <v>0.002773256780871281</v>
+      </c>
+      <c r="H93">
+        <v>-0.008426733119678741</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1216135205411612</v>
+        <v>0.1264883971956982</v>
       </c>
       <c r="C94">
-        <v>0.08138251261979963</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03639478521873253</v>
+      </c>
+      <c r="D94">
+        <v>0.05681076899605942</v>
+      </c>
+      <c r="E94">
+        <v>0.0307422629870502</v>
+      </c>
+      <c r="F94">
+        <v>0.03812029598424145</v>
+      </c>
+      <c r="G94">
+        <v>-0.02756143585635231</v>
+      </c>
+      <c r="H94">
+        <v>0.09911609983927408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1122825068046905</v>
+        <v>0.1195916043661567</v>
       </c>
       <c r="C95">
-        <v>0.061086388968005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02346165011282994</v>
+      </c>
+      <c r="D95">
+        <v>0.05174271717390915</v>
+      </c>
+      <c r="E95">
+        <v>0.009064923810240341</v>
+      </c>
+      <c r="F95">
+        <v>0.03249414750538986</v>
+      </c>
+      <c r="G95">
+        <v>-0.00670510170613632</v>
+      </c>
+      <c r="H95">
+        <v>0.0179503101829346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1962383651061944</v>
+        <v>0.2231574723212256</v>
       </c>
       <c r="C97">
-        <v>0.07684333417150555</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.03527799493921446</v>
+      </c>
+      <c r="D97">
+        <v>-0.01905114052186422</v>
+      </c>
+      <c r="E97">
+        <v>0.1215772412498426</v>
+      </c>
+      <c r="F97">
+        <v>-0.8902784712726157</v>
+      </c>
+      <c r="G97">
+        <v>0.2141515041814921</v>
+      </c>
+      <c r="H97">
+        <v>0.02325236434931868</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2310909126992914</v>
+        <v>0.2629294008526871</v>
       </c>
       <c r="C98">
-        <v>0.1303929968535412</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.0634395685485929</v>
+      </c>
+      <c r="D98">
+        <v>0.04537821415256588</v>
+      </c>
+      <c r="E98">
+        <v>0.1546086327146815</v>
+      </c>
+      <c r="F98">
+        <v>0.01825218406042743</v>
+      </c>
+      <c r="G98">
+        <v>-0.2900356955079331</v>
+      </c>
+      <c r="H98">
+        <v>-0.2001392446983921</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.586762936693498</v>
+        <v>0.3609658908843098</v>
       </c>
       <c r="C99">
-        <v>-0.7994989995374038</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9209540695151667</v>
+      </c>
+      <c r="D99">
+        <v>-0.0750079578773144</v>
+      </c>
+      <c r="E99">
+        <v>-0.04380786005356689</v>
+      </c>
+      <c r="F99">
+        <v>0.04232516486422931</v>
+      </c>
+      <c r="G99">
+        <v>-0.01400999997060963</v>
+      </c>
+      <c r="H99">
+        <v>0.04223398061282461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03472253123647169</v>
+        <v>0.04341032859984417</v>
       </c>
       <c r="C101">
-        <v>0.03233297899312926</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.024228044986858</v>
+      </c>
+      <c r="D101">
+        <v>0.0107924742527176</v>
+      </c>
+      <c r="E101">
+        <v>-0.03417122731938198</v>
+      </c>
+      <c r="F101">
+        <v>0.01250479217900239</v>
+      </c>
+      <c r="G101">
+        <v>-0.01462424814046908</v>
+      </c>
+      <c r="H101">
+        <v>0.08070631214393245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
